--- a/xlsx/xlsx.xlsx
+++ b/xlsx/xlsx.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="14980" yWindow="8960" windowWidth="28800" windowHeight="15800" tabRatio="500"/>
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
-    <t>keycode</t>
-  </si>
-  <si>
     <t>title-1</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>file-name</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1035,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1045,85 +1045,85 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
